--- a/Evaluaciones CADA 2022-2/Planilla de Valoración 2022 Informatica.xlsx
+++ b/Evaluaciones CADA 2022-2/Planilla de Valoración 2022 Informatica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Systems\NetBeansProjects\Evaluaciones CADA 2022-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F76B43-3741-47F0-A6FF-078F2530BD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6078B33B-CA07-4329-ACFA-3A9520FA366D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P. Valoración 7°,8°,9°" sheetId="3" r:id="rId1"/>
@@ -996,26 +996,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1036,41 +1073,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1086,30 +1095,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2371,7 +2361,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:Q153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
@@ -2441,78 +2431,78 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29" t="s">
+      <c r="A6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="32"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
@@ -2528,128 +2518,128 @@
       <c r="J7" s="2">
         <v>2022</v>
       </c>
-      <c r="K7" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="32"/>
+      <c r="K7" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="32"/>
+      <c r="E8" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="29"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="32"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="29"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="43" t="s">
+      <c r="B10" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="35" t="s">
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="35" t="s">
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="41" t="s">
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="43" t="s">
+      <c r="Q10" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="43"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="30"/>
     </row>
     <row r="12" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
@@ -2686,8 +2676,8 @@
       <c r="O12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="44"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="31"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -4414,65 +4404,65 @@
       <c r="B45" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="46"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="46"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="46"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="46"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="46"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
@@ -4612,71 +4602,71 @@
       <c r="Q54" s="1"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="25"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="26"/>
-      <c r="Q56" s="26"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="53"/>
+      <c r="Q56" s="53"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="29" t="s">
+      <c r="A57" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="27"/>
+      <c r="C57" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="32"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="29"/>
     </row>
     <row r="58" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="28"/>
+      <c r="B58" s="27"/>
       <c r="C58" s="14" t="s">
         <v>38</v>
       </c>
@@ -4701,48 +4691,48 @@
       <c r="J58" s="2">
         <v>2022</v>
       </c>
-      <c r="K58" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="32"/>
+      <c r="K58" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="29"/>
     </row>
     <row r="59" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="28"/>
+      <c r="B59" s="27"/>
       <c r="C59" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="32"/>
+      <c r="E59" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="29"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="28"/>
+      <c r="B60" s="27"/>
       <c r="C60" s="2" t="s">
         <v>1</v>
       </c>
@@ -4752,79 +4742,79 @@
       <c r="E60" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F60" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="32"/>
+      <c r="F60" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="29"/>
     </row>
     <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="43" t="s">
+      <c r="A61" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="43" t="s">
+      <c r="B61" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="47" t="s">
+      <c r="D61" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="47" t="s">
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="47" t="s">
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="M61" s="48"/>
-      <c r="N61" s="48"/>
-      <c r="O61" s="49"/>
-      <c r="P61" s="41" t="s">
+      <c r="M61" s="34"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q61" s="43" t="s">
+      <c r="Q61" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="51"/>
-      <c r="J62" s="51"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="50"/>
-      <c r="M62" s="51"/>
-      <c r="N62" s="51"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="41"/>
-      <c r="Q62" s="43"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="30"/>
     </row>
     <row r="63" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="45"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="32"/>
       <c r="D63" s="3" t="s">
         <v>17</v>
       </c>
@@ -4861,8 +4851,8 @@
       <c r="O63" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P63" s="42"/>
-      <c r="Q63" s="44"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="31"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
@@ -6523,65 +6513,65 @@
       <c r="B95" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="46" t="s">
+      <c r="C95" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D95" s="46"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="46"/>
-      <c r="I95" s="46"/>
-      <c r="J95" s="46"/>
-      <c r="K95" s="46"/>
-      <c r="L95" s="46"/>
-      <c r="M95" s="46"/>
-      <c r="N95" s="46"/>
-      <c r="O95" s="46"/>
-      <c r="P95" s="46"/>
-      <c r="Q95" s="46"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="25"/>
+      <c r="L95" s="25"/>
+      <c r="M95" s="25"/>
+      <c r="N95" s="25"/>
+      <c r="O95" s="25"/>
+      <c r="P95" s="25"/>
+      <c r="Q95" s="25"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C96" s="46"/>
-      <c r="D96" s="46"/>
-      <c r="E96" s="46"/>
-      <c r="F96" s="46"/>
-      <c r="G96" s="46"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="46"/>
-      <c r="J96" s="46"/>
-      <c r="K96" s="46"/>
-      <c r="L96" s="46"/>
-      <c r="M96" s="46"/>
-      <c r="N96" s="46"/>
-      <c r="O96" s="46"/>
-      <c r="P96" s="46"/>
-      <c r="Q96" s="46"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="25"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="25"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="25"/>
+      <c r="Q96" s="25"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="46"/>
-      <c r="D97" s="46"/>
-      <c r="E97" s="46"/>
-      <c r="F97" s="46"/>
-      <c r="G97" s="46"/>
-      <c r="H97" s="46"/>
-      <c r="I97" s="46"/>
-      <c r="J97" s="46"/>
-      <c r="K97" s="46"/>
-      <c r="L97" s="46"/>
-      <c r="M97" s="46"/>
-      <c r="N97" s="46"/>
-      <c r="O97" s="46"/>
-      <c r="P97" s="46"/>
-      <c r="Q97" s="46"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="25"/>
+      <c r="M97" s="25"/>
+      <c r="N97" s="25"/>
+      <c r="O97" s="25"/>
+      <c r="P97" s="25"/>
+      <c r="Q97" s="25"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
@@ -6645,33 +6635,33 @@
       <c r="Q100" s="1"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A104" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="28"/>
-      <c r="C104" s="29" t="s">
+      <c r="A104" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="27"/>
+      <c r="C104" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="29"/>
-      <c r="I104" s="29"/>
-      <c r="J104" s="29"/>
-      <c r="K104" s="30"/>
-      <c r="L104" s="31"/>
-      <c r="M104" s="31"/>
-      <c r="N104" s="31"/>
-      <c r="O104" s="31"/>
-      <c r="P104" s="31"/>
-      <c r="Q104" s="32"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="44"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="44"/>
+      <c r="I104" s="44"/>
+      <c r="J104" s="44"/>
+      <c r="K104" s="45"/>
+      <c r="L104" s="28"/>
+      <c r="M104" s="28"/>
+      <c r="N104" s="28"/>
+      <c r="O104" s="28"/>
+      <c r="P104" s="28"/>
+      <c r="Q104" s="29"/>
     </row>
     <row r="105" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A105" s="27" t="s">
+      <c r="A105" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B105" s="28"/>
+      <c r="B105" s="27"/>
       <c r="C105" s="14" t="s">
         <v>38</v>
       </c>
@@ -6696,128 +6686,128 @@
       <c r="J105" s="2">
         <v>2022</v>
       </c>
-      <c r="K105" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="L105" s="31"/>
-      <c r="M105" s="31"/>
-      <c r="N105" s="31"/>
-      <c r="O105" s="31"/>
-      <c r="P105" s="31"/>
-      <c r="Q105" s="32"/>
+      <c r="K105" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L105" s="28"/>
+      <c r="M105" s="28"/>
+      <c r="N105" s="28"/>
+      <c r="O105" s="28"/>
+      <c r="P105" s="28"/>
+      <c r="Q105" s="29"/>
     </row>
     <row r="106" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="27" t="s">
+      <c r="A106" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B106" s="28"/>
+      <c r="B106" s="27"/>
       <c r="C106" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E106" s="31" t="s">
+      <c r="E106" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="F106" s="31"/>
-      <c r="G106" s="31"/>
-      <c r="H106" s="31"/>
-      <c r="I106" s="31"/>
-      <c r="J106" s="31"/>
-      <c r="K106" s="31"/>
-      <c r="L106" s="31"/>
-      <c r="M106" s="31"/>
-      <c r="N106" s="31"/>
-      <c r="O106" s="31"/>
-      <c r="P106" s="31"/>
-      <c r="Q106" s="32"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="28"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="28"/>
+      <c r="L106" s="28"/>
+      <c r="M106" s="28"/>
+      <c r="N106" s="28"/>
+      <c r="O106" s="28"/>
+      <c r="P106" s="28"/>
+      <c r="Q106" s="29"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B107" s="28"/>
+      <c r="B107" s="27"/>
       <c r="C107" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E107" s="59" t="s">
+      <c r="E107" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="F107" s="60"/>
-      <c r="G107" s="60"/>
-      <c r="H107" s="60"/>
-      <c r="I107" s="60"/>
-      <c r="J107" s="60"/>
-      <c r="K107" s="60"/>
-      <c r="L107" s="60"/>
-      <c r="M107" s="60"/>
-      <c r="N107" s="60"/>
-      <c r="O107" s="60"/>
-      <c r="P107" s="60"/>
-      <c r="Q107" s="61"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="42"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="42"/>
+      <c r="M107" s="42"/>
+      <c r="N107" s="42"/>
+      <c r="O107" s="42"/>
+      <c r="P107" s="42"/>
+      <c r="Q107" s="43"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" s="43" t="s">
+      <c r="A108" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B108" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" s="43" t="s">
+      <c r="B108" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="47" t="s">
+      <c r="D108" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="48"/>
-      <c r="F108" s="48"/>
-      <c r="G108" s="49"/>
-      <c r="H108" s="47" t="s">
+      <c r="E108" s="34"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="35"/>
+      <c r="H108" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I108" s="48"/>
-      <c r="J108" s="48"/>
-      <c r="K108" s="49"/>
-      <c r="L108" s="47" t="s">
+      <c r="I108" s="34"/>
+      <c r="J108" s="34"/>
+      <c r="K108" s="35"/>
+      <c r="L108" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="M108" s="48"/>
-      <c r="N108" s="48"/>
-      <c r="O108" s="49"/>
-      <c r="P108" s="41" t="s">
+      <c r="M108" s="34"/>
+      <c r="N108" s="34"/>
+      <c r="O108" s="35"/>
+      <c r="P108" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q108" s="43" t="s">
+      <c r="Q108" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A109" s="43"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="50"/>
-      <c r="E109" s="51"/>
-      <c r="F109" s="51"/>
-      <c r="G109" s="52"/>
-      <c r="H109" s="50"/>
-      <c r="I109" s="51"/>
-      <c r="J109" s="51"/>
-      <c r="K109" s="52"/>
-      <c r="L109" s="50"/>
-      <c r="M109" s="51"/>
-      <c r="N109" s="51"/>
-      <c r="O109" s="52"/>
-      <c r="P109" s="41"/>
-      <c r="Q109" s="43"/>
+      <c r="A109" s="30"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="38"/>
+      <c r="H109" s="36"/>
+      <c r="I109" s="37"/>
+      <c r="J109" s="37"/>
+      <c r="K109" s="38"/>
+      <c r="L109" s="36"/>
+      <c r="M109" s="37"/>
+      <c r="N109" s="37"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="39"/>
+      <c r="Q109" s="30"/>
     </row>
     <row r="110" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="44"/>
-      <c r="B110" s="44"/>
-      <c r="C110" s="45"/>
+      <c r="A110" s="31"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="32"/>
       <c r="D110" s="3" t="s">
         <v>17</v>
       </c>
@@ -6854,8 +6844,8 @@
       <c r="O110" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P110" s="42"/>
-      <c r="Q110" s="44"/>
+      <c r="P110" s="40"/>
+      <c r="Q110" s="31"/>
     </row>
     <row r="111" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
@@ -9055,65 +9045,65 @@
       <c r="B148" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C148" s="46" t="s">
+      <c r="C148" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D148" s="46"/>
-      <c r="E148" s="46"/>
-      <c r="F148" s="46"/>
-      <c r="G148" s="46"/>
-      <c r="H148" s="46"/>
-      <c r="I148" s="46"/>
-      <c r="J148" s="46"/>
-      <c r="K148" s="46"/>
-      <c r="L148" s="46"/>
-      <c r="M148" s="46"/>
-      <c r="N148" s="46"/>
-      <c r="O148" s="46"/>
-      <c r="P148" s="46"/>
-      <c r="Q148" s="46"/>
+      <c r="D148" s="25"/>
+      <c r="E148" s="25"/>
+      <c r="F148" s="25"/>
+      <c r="G148" s="25"/>
+      <c r="H148" s="25"/>
+      <c r="I148" s="25"/>
+      <c r="J148" s="25"/>
+      <c r="K148" s="25"/>
+      <c r="L148" s="25"/>
+      <c r="M148" s="25"/>
+      <c r="N148" s="25"/>
+      <c r="O148" s="25"/>
+      <c r="P148" s="25"/>
+      <c r="Q148" s="25"/>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C149" s="46"/>
-      <c r="D149" s="46"/>
-      <c r="E149" s="46"/>
-      <c r="F149" s="46"/>
-      <c r="G149" s="46"/>
-      <c r="H149" s="46"/>
-      <c r="I149" s="46"/>
-      <c r="J149" s="46"/>
-      <c r="K149" s="46"/>
-      <c r="L149" s="46"/>
-      <c r="M149" s="46"/>
-      <c r="N149" s="46"/>
-      <c r="O149" s="46"/>
-      <c r="P149" s="46"/>
-      <c r="Q149" s="46"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="25"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="25"/>
+      <c r="K149" s="25"/>
+      <c r="L149" s="25"/>
+      <c r="M149" s="25"/>
+      <c r="N149" s="25"/>
+      <c r="O149" s="25"/>
+      <c r="P149" s="25"/>
+      <c r="Q149" s="25"/>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C150" s="46"/>
-      <c r="D150" s="46"/>
-      <c r="E150" s="46"/>
-      <c r="F150" s="46"/>
-      <c r="G150" s="46"/>
-      <c r="H150" s="46"/>
-      <c r="I150" s="46"/>
-      <c r="J150" s="46"/>
-      <c r="K150" s="46"/>
-      <c r="L150" s="46"/>
-      <c r="M150" s="46"/>
-      <c r="N150" s="46"/>
-      <c r="O150" s="46"/>
-      <c r="P150" s="46"/>
-      <c r="Q150" s="46"/>
+      <c r="C150" s="25"/>
+      <c r="D150" s="25"/>
+      <c r="E150" s="25"/>
+      <c r="F150" s="25"/>
+      <c r="G150" s="25"/>
+      <c r="H150" s="25"/>
+      <c r="I150" s="25"/>
+      <c r="J150" s="25"/>
+      <c r="K150" s="25"/>
+      <c r="L150" s="25"/>
+      <c r="M150" s="25"/>
+      <c r="N150" s="25"/>
+      <c r="O150" s="25"/>
+      <c r="P150" s="25"/>
+      <c r="Q150" s="25"/>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
@@ -9178,24 +9168,30 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="C148:Q150"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="E106:Q106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D108:G109"/>
-    <mergeCell ref="H108:K109"/>
-    <mergeCell ref="L108:O109"/>
-    <mergeCell ref="P108:P110"/>
-    <mergeCell ref="Q108:Q110"/>
-    <mergeCell ref="E107:Q107"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:K104"/>
-    <mergeCell ref="L104:Q104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A4:Q5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:Q8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:Q9"/>
+    <mergeCell ref="L10:O11"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="A55:Q56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="L57:Q57"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:G11"/>
+    <mergeCell ref="H10:K11"/>
     <mergeCell ref="P61:P63"/>
     <mergeCell ref="Q61:Q63"/>
     <mergeCell ref="C95:Q97"/>
@@ -9212,30 +9208,24 @@
     <mergeCell ref="E59:Q59"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="F60:Q60"/>
-    <mergeCell ref="L10:O11"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="A55:Q56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="L57:Q57"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:G11"/>
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:Q8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:Q9"/>
-    <mergeCell ref="A4:Q5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:K104"/>
+    <mergeCell ref="L104:Q104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="C148:Q150"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="E106:Q106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:G109"/>
+    <mergeCell ref="H108:K109"/>
+    <mergeCell ref="L108:O109"/>
+    <mergeCell ref="P108:P110"/>
+    <mergeCell ref="Q108:Q110"/>
+    <mergeCell ref="E107:Q107"/>
   </mergeCells>
   <conditionalFormatting sqref="Q111:Q143">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -9253,8 +9243,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9323,78 +9313,78 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29" t="s">
+      <c r="A6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="32"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
@@ -9410,128 +9400,128 @@
       <c r="J7" s="2">
         <v>2022</v>
       </c>
-      <c r="K7" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="32"/>
+      <c r="K7" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="32"/>
+      <c r="E8" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="29"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="32"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="29"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="43" t="s">
+      <c r="B10" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="47" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="47" t="s">
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="41" t="s">
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="43" t="s">
+      <c r="Q10" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="43"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="30"/>
     </row>
     <row r="12" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
@@ -9568,8 +9558,8 @@
       <c r="O12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="44"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="31"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -10695,42 +10685,42 @@
       <c r="B34" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -10738,20 +10728,20 @@
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -10894,71 +10884,71 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="29" t="s">
+      <c r="A46" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="27"/>
+      <c r="C46" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="32"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="29"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="28"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="3" t="s">
         <v>132</v>
       </c>
@@ -10983,48 +10973,48 @@
       <c r="J47" s="2">
         <v>2022</v>
       </c>
-      <c r="K47" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="32"/>
+      <c r="K47" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="29"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="28"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="32"/>
+      <c r="E48" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="29"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="28"/>
+      <c r="B49" s="27"/>
       <c r="C49" s="2" t="s">
         <v>1</v>
       </c>
@@ -11034,79 +11024,79 @@
       <c r="E49" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F49" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="32"/>
+      <c r="F49" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="29"/>
     </row>
     <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="43" t="s">
+      <c r="B50" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="47" t="s">
+      <c r="D50" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="47" t="s">
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="47" t="s">
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="M50" s="48"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="49"/>
-      <c r="P50" s="41" t="s">
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q50" s="43" t="s">
+      <c r="Q50" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="51"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="43"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="30"/>
     </row>
     <row r="52" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="45"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="3" t="s">
         <v>17</v>
       </c>
@@ -11143,8 +11133,8 @@
       <c r="O52" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="44"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="31"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
@@ -12270,42 +12260,42 @@
       <c r="B74" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="53" t="s">
+      <c r="C74" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="53"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="53"/>
-      <c r="K74" s="53"/>
-      <c r="L74" s="53"/>
-      <c r="M74" s="53"/>
-      <c r="N74" s="53"/>
-      <c r="O74" s="53"/>
-      <c r="P74" s="53"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
+      <c r="L74" s="56"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="56"/>
+      <c r="O74" s="56"/>
+      <c r="P74" s="56"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="53"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="53"/>
-      <c r="K75" s="53"/>
-      <c r="L75" s="53"/>
-      <c r="M75" s="53"/>
-      <c r="N75" s="53"/>
-      <c r="O75" s="53"/>
-      <c r="P75" s="53"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="56"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="56"/>
+      <c r="O75" s="56"/>
+      <c r="P75" s="56"/>
       <c r="Q75" s="1"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -12313,20 +12303,20 @@
       <c r="B76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="53"/>
-      <c r="M76" s="53"/>
-      <c r="N76" s="53"/>
-      <c r="O76" s="53"/>
-      <c r="P76" s="53"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="56"/>
+      <c r="O76" s="56"/>
+      <c r="P76" s="56"/>
       <c r="Q76" s="1"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -12393,40 +12383,40 @@
       <c r="Q79" s="1"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="28"/>
-      <c r="C82" s="29" t="s">
+      <c r="A82" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="27"/>
+      <c r="C82" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="31"/>
-      <c r="M82" s="31"/>
-      <c r="N82" s="31"/>
-      <c r="O82" s="31"/>
-      <c r="P82" s="31"/>
-      <c r="Q82" s="32"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="45"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="28"/>
+      <c r="O82" s="28"/>
+      <c r="P82" s="28"/>
+      <c r="Q82" s="29"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="28"/>
+      <c r="B83" s="27"/>
       <c r="C83" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D83" s="33" t="s">
+      <c r="D83" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="E83" s="34"/>
+      <c r="E83" s="55"/>
       <c r="F83" s="2" t="s">
         <v>1</v>
       </c>
@@ -12442,128 +12432,128 @@
       <c r="J83" s="2">
         <v>2022</v>
       </c>
-      <c r="K83" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="L83" s="31"/>
-      <c r="M83" s="31"/>
-      <c r="N83" s="31"/>
-      <c r="O83" s="31"/>
-      <c r="P83" s="31"/>
-      <c r="Q83" s="32"/>
+      <c r="K83" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L83" s="28"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="28"/>
+      <c r="O83" s="28"/>
+      <c r="P83" s="28"/>
+      <c r="Q83" s="29"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="27" t="s">
+      <c r="A84" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="28"/>
+      <c r="B84" s="27"/>
       <c r="C84" s="3" t="s">
         <v>133</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E84" s="54" t="s">
+      <c r="E84" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="F84" s="54"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="54"/>
-      <c r="I84" s="54"/>
-      <c r="J84" s="54"/>
-      <c r="K84" s="54"/>
-      <c r="L84" s="54"/>
-      <c r="M84" s="54"/>
-      <c r="N84" s="54"/>
-      <c r="O84" s="54"/>
-      <c r="P84" s="54"/>
-      <c r="Q84" s="55"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="57"/>
+      <c r="K84" s="57"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="57"/>
+      <c r="N84" s="57"/>
+      <c r="O84" s="57"/>
+      <c r="P84" s="57"/>
+      <c r="Q84" s="58"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="27" t="s">
+      <c r="A85" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B85" s="28"/>
+      <c r="B85" s="27"/>
       <c r="C85" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E85" s="56" t="s">
+      <c r="E85" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="F85" s="57"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="57"/>
-      <c r="I85" s="57"/>
-      <c r="J85" s="57"/>
-      <c r="K85" s="57"/>
-      <c r="L85" s="57"/>
-      <c r="M85" s="57"/>
-      <c r="N85" s="57"/>
-      <c r="O85" s="57"/>
-      <c r="P85" s="57"/>
-      <c r="Q85" s="58"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="60"/>
+      <c r="K85" s="60"/>
+      <c r="L85" s="60"/>
+      <c r="M85" s="60"/>
+      <c r="N85" s="60"/>
+      <c r="O85" s="60"/>
+      <c r="P85" s="60"/>
+      <c r="Q85" s="61"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="43" t="s">
+      <c r="A86" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" s="43" t="s">
+      <c r="B86" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="47" t="s">
+      <c r="D86" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="47" t="s">
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I86" s="48"/>
-      <c r="J86" s="48"/>
-      <c r="K86" s="49"/>
-      <c r="L86" s="47" t="s">
+      <c r="I86" s="34"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="M86" s="48"/>
-      <c r="N86" s="48"/>
-      <c r="O86" s="49"/>
-      <c r="P86" s="41" t="s">
+      <c r="M86" s="34"/>
+      <c r="N86" s="34"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q86" s="43" t="s">
+      <c r="Q86" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="43"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="51"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="51"/>
-      <c r="J87" s="51"/>
-      <c r="K87" s="52"/>
-      <c r="L87" s="50"/>
-      <c r="M87" s="51"/>
-      <c r="N87" s="51"/>
-      <c r="O87" s="52"/>
-      <c r="P87" s="41"/>
-      <c r="Q87" s="43"/>
+      <c r="A87" s="30"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="37"/>
+      <c r="K87" s="38"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="37"/>
+      <c r="N87" s="37"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="39"/>
+      <c r="Q87" s="30"/>
     </row>
     <row r="88" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="44"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="45"/>
+      <c r="A88" s="31"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="32"/>
       <c r="D88" s="3" t="s">
         <v>17</v>
       </c>
@@ -12600,8 +12590,8 @@
       <c r="O88" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P88" s="42"/>
-      <c r="Q88" s="44"/>
+      <c r="P88" s="40"/>
+      <c r="Q88" s="31"/>
     </row>
     <row r="89" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
@@ -13471,15 +13461,15 @@
         <v>20</v>
       </c>
       <c r="E103" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F103" s="4">
         <f t="shared" si="24"/>
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="G103" s="8">
         <f t="shared" si="25"/>
-        <v>17.5</v>
+        <v>62.999999999999993</v>
       </c>
       <c r="H103" s="7">
         <v>10</v>
@@ -13511,11 +13501,11 @@
       </c>
       <c r="P103" s="2">
         <f t="shared" si="30"/>
-        <v>47.5</v>
+        <v>93</v>
       </c>
       <c r="Q103" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>Uno</v>
+        <v>Cuatro</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -14449,42 +14439,42 @@
       <c r="B120" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C120" s="53" t="s">
+      <c r="C120" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D120" s="53"/>
-      <c r="E120" s="53"/>
-      <c r="F120" s="53"/>
-      <c r="G120" s="53"/>
-      <c r="H120" s="53"/>
-      <c r="I120" s="53"/>
-      <c r="J120" s="53"/>
-      <c r="K120" s="53"/>
-      <c r="L120" s="53"/>
-      <c r="M120" s="53"/>
-      <c r="N120" s="53"/>
-      <c r="O120" s="53"/>
-      <c r="P120" s="53"/>
+      <c r="D120" s="56"/>
+      <c r="E120" s="56"/>
+      <c r="F120" s="56"/>
+      <c r="G120" s="56"/>
+      <c r="H120" s="56"/>
+      <c r="I120" s="56"/>
+      <c r="J120" s="56"/>
+      <c r="K120" s="56"/>
+      <c r="L120" s="56"/>
+      <c r="M120" s="56"/>
+      <c r="N120" s="56"/>
+      <c r="O120" s="56"/>
+      <c r="P120" s="56"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C121" s="53"/>
-      <c r="D121" s="53"/>
-      <c r="E121" s="53"/>
-      <c r="F121" s="53"/>
-      <c r="G121" s="53"/>
-      <c r="H121" s="53"/>
-      <c r="I121" s="53"/>
-      <c r="J121" s="53"/>
-      <c r="K121" s="53"/>
-      <c r="L121" s="53"/>
-      <c r="M121" s="53"/>
-      <c r="N121" s="53"/>
-      <c r="O121" s="53"/>
-      <c r="P121" s="53"/>
+      <c r="C121" s="56"/>
+      <c r="D121" s="56"/>
+      <c r="E121" s="56"/>
+      <c r="F121" s="56"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="56"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="56"/>
+      <c r="L121" s="56"/>
+      <c r="M121" s="56"/>
+      <c r="N121" s="56"/>
+      <c r="O121" s="56"/>
+      <c r="P121" s="56"/>
       <c r="Q121" s="1"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
@@ -14492,20 +14482,20 @@
       <c r="B122" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C122" s="53"/>
-      <c r="D122" s="53"/>
-      <c r="E122" s="53"/>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
-      <c r="L122" s="53"/>
-      <c r="M122" s="53"/>
-      <c r="N122" s="53"/>
-      <c r="O122" s="53"/>
-      <c r="P122" s="53"/>
+      <c r="C122" s="56"/>
+      <c r="D122" s="56"/>
+      <c r="E122" s="56"/>
+      <c r="F122" s="56"/>
+      <c r="G122" s="56"/>
+      <c r="H122" s="56"/>
+      <c r="I122" s="56"/>
+      <c r="J122" s="56"/>
+      <c r="K122" s="56"/>
+      <c r="L122" s="56"/>
+      <c r="M122" s="56"/>
+      <c r="N122" s="56"/>
+      <c r="O122" s="56"/>
+      <c r="P122" s="56"/>
       <c r="Q122" s="1"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
@@ -14573,6 +14563,52 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="C74:P76"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:G51"/>
+    <mergeCell ref="H50:K51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="E48:Q48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="F49:Q49"/>
+    <mergeCell ref="L50:O51"/>
+    <mergeCell ref="P50:P52"/>
+    <mergeCell ref="Q50:Q52"/>
+    <mergeCell ref="C34:P36"/>
+    <mergeCell ref="A44:Q45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="L46:Q46"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:Q8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:Q9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L10:O11"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A4:Q5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:K82"/>
+    <mergeCell ref="L82:Q82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="D83:E83"/>
     <mergeCell ref="C120:P122"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="E84:Q84"/>
@@ -14586,55 +14622,9 @@
     <mergeCell ref="P86:P88"/>
     <mergeCell ref="Q86:Q88"/>
     <mergeCell ref="E85:Q85"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:K82"/>
-    <mergeCell ref="L82:Q82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="K83:Q83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A4:Q5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:Q8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:Q9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:G11"/>
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="L10:O11"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="C34:P36"/>
-    <mergeCell ref="A44:Q45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="K47:Q47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="L46:Q46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="E48:Q48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="F49:Q49"/>
-    <mergeCell ref="L50:O51"/>
-    <mergeCell ref="P50:P52"/>
-    <mergeCell ref="Q50:Q52"/>
-    <mergeCell ref="C74:P76"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:G51"/>
-    <mergeCell ref="H50:K51"/>
   </mergeCells>
   <conditionalFormatting sqref="Q89:Q116">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Uno"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14719,78 +14709,78 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29" t="s">
+      <c r="A6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="32"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
@@ -14806,128 +14796,128 @@
       <c r="J7" s="2">
         <v>2022</v>
       </c>
-      <c r="K7" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="32"/>
+      <c r="K7" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="32"/>
+      <c r="E8" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="29"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="32"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="29"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="43" t="s">
+      <c r="B10" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="47" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="47" t="s">
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="41" t="s">
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="43" t="s">
+      <c r="Q10" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="43"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="30"/>
     </row>
     <row r="12" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
@@ -14964,8 +14954,8 @@
       <c r="O12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="44"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="31"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -16091,42 +16081,42 @@
       <c r="B34" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -16134,20 +16124,20 @@
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -16290,78 +16280,78 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="52"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="53"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="29" t="s">
+      <c r="A47" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="32"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="29"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="28"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D48" s="33" t="s">
+      <c r="D48" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="34"/>
+      <c r="E48" s="55"/>
       <c r="F48" s="2" t="s">
         <v>1</v>
       </c>
@@ -16377,128 +16367,128 @@
       <c r="J48" s="2">
         <v>2022</v>
       </c>
-      <c r="K48" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="32"/>
+      <c r="K48" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="29"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="28"/>
+      <c r="B49" s="27"/>
       <c r="C49" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="32"/>
+      <c r="E49" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="29"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="28"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="33" t="s">
+      <c r="D50" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="34"/>
-      <c r="F50" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="32"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="29"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="43" t="s">
+      <c r="B51" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="47" t="s">
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="47" t="s">
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="M51" s="48"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="49"/>
-      <c r="P51" s="41" t="s">
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q51" s="43" t="s">
+      <c r="Q51" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="43"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="30"/>
     </row>
     <row r="53" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="45"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
       <c r="D53" s="3" t="s">
         <v>17</v>
       </c>
@@ -16535,8 +16525,8 @@
       <c r="O53" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P53" s="42"/>
-      <c r="Q53" s="44"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="31"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
@@ -17662,42 +17652,42 @@
       <c r="B75" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C75" s="53" t="s">
+      <c r="C75" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="53"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="53"/>
-      <c r="K75" s="53"/>
-      <c r="L75" s="53"/>
-      <c r="M75" s="53"/>
-      <c r="N75" s="53"/>
-      <c r="O75" s="53"/>
-      <c r="P75" s="53"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="56"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="56"/>
+      <c r="O75" s="56"/>
+      <c r="P75" s="56"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="53"/>
-      <c r="M76" s="53"/>
-      <c r="N76" s="53"/>
-      <c r="O76" s="53"/>
-      <c r="P76" s="53"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="56"/>
+      <c r="O76" s="56"/>
+      <c r="P76" s="56"/>
       <c r="Q76" s="1"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -17705,20 +17695,20 @@
       <c r="B77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="53"/>
-      <c r="M77" s="53"/>
-      <c r="N77" s="53"/>
-      <c r="O77" s="53"/>
-      <c r="P77" s="53"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="56"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="56"/>
+      <c r="M77" s="56"/>
+      <c r="N77" s="56"/>
+      <c r="O77" s="56"/>
+      <c r="P77" s="56"/>
       <c r="Q77" s="1"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -17861,78 +17851,78 @@
       <c r="Q85" s="1"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
-      <c r="I86" s="25"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="25"/>
-      <c r="L86" s="25"/>
-      <c r="M86" s="25"/>
-      <c r="N86" s="25"/>
-      <c r="O86" s="25"/>
-      <c r="P86" s="25"/>
-      <c r="Q86" s="25"/>
+      <c r="A86" s="52"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="52"/>
+      <c r="I86" s="52"/>
+      <c r="J86" s="52"/>
+      <c r="K86" s="52"/>
+      <c r="L86" s="52"/>
+      <c r="M86" s="52"/>
+      <c r="N86" s="52"/>
+      <c r="O86" s="52"/>
+      <c r="P86" s="52"/>
+      <c r="Q86" s="52"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="26"/>
-      <c r="L87" s="26"/>
-      <c r="M87" s="26"/>
-      <c r="N87" s="26"/>
-      <c r="O87" s="26"/>
-      <c r="P87" s="26"/>
-      <c r="Q87" s="26"/>
+      <c r="A87" s="53"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="53"/>
+      <c r="G87" s="53"/>
+      <c r="H87" s="53"/>
+      <c r="I87" s="53"/>
+      <c r="J87" s="53"/>
+      <c r="K87" s="53"/>
+      <c r="L87" s="53"/>
+      <c r="M87" s="53"/>
+      <c r="N87" s="53"/>
+      <c r="O87" s="53"/>
+      <c r="P87" s="53"/>
+      <c r="Q87" s="53"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="28"/>
-      <c r="C88" s="29" t="s">
+      <c r="A88" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="27"/>
+      <c r="C88" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="30"/>
-      <c r="L88" s="31"/>
-      <c r="M88" s="31"/>
-      <c r="N88" s="31"/>
-      <c r="O88" s="31"/>
-      <c r="P88" s="31"/>
-      <c r="Q88" s="32"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="45"/>
+      <c r="L88" s="28"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="28"/>
+      <c r="P88" s="28"/>
+      <c r="Q88" s="29"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="27" t="s">
+      <c r="A89" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B89" s="28"/>
+      <c r="B89" s="27"/>
       <c r="C89" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D89" s="33" t="s">
+      <c r="D89" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="34"/>
+      <c r="E89" s="55"/>
       <c r="F89" s="2" t="s">
         <v>1</v>
       </c>
@@ -17948,128 +17938,128 @@
       <c r="J89" s="2">
         <v>2022</v>
       </c>
-      <c r="K89" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="L89" s="31"/>
-      <c r="M89" s="31"/>
-      <c r="N89" s="31"/>
-      <c r="O89" s="31"/>
-      <c r="P89" s="31"/>
-      <c r="Q89" s="32"/>
+      <c r="K89" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L89" s="28"/>
+      <c r="M89" s="28"/>
+      <c r="N89" s="28"/>
+      <c r="O89" s="28"/>
+      <c r="P89" s="28"/>
+      <c r="Q89" s="29"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="27" t="s">
+      <c r="A90" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="28"/>
+      <c r="B90" s="27"/>
       <c r="C90" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E90" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="31"/>
-      <c r="K90" s="31"/>
-      <c r="L90" s="31"/>
-      <c r="M90" s="31"/>
-      <c r="N90" s="31"/>
-      <c r="O90" s="31"/>
-      <c r="P90" s="31"/>
-      <c r="Q90" s="32"/>
+      <c r="E90" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="28"/>
+      <c r="L90" s="28"/>
+      <c r="M90" s="28"/>
+      <c r="N90" s="28"/>
+      <c r="O90" s="28"/>
+      <c r="P90" s="28"/>
+      <c r="Q90" s="29"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="27" t="s">
+      <c r="A91" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="28"/>
+      <c r="B91" s="27"/>
       <c r="C91" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="33" t="s">
+      <c r="D91" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="34"/>
-      <c r="F91" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="31"/>
-      <c r="K91" s="31"/>
-      <c r="L91" s="31"/>
-      <c r="M91" s="31"/>
-      <c r="N91" s="31"/>
-      <c r="O91" s="31"/>
-      <c r="P91" s="31"/>
-      <c r="Q91" s="32"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="28"/>
+      <c r="M91" s="28"/>
+      <c r="N91" s="28"/>
+      <c r="O91" s="28"/>
+      <c r="P91" s="28"/>
+      <c r="Q91" s="29"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="43" t="s">
+      <c r="A92" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="43" t="s">
+      <c r="B92" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="47" t="s">
+      <c r="D92" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E92" s="48"/>
-      <c r="F92" s="48"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="47" t="s">
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="49"/>
-      <c r="L92" s="47" t="s">
+      <c r="I92" s="34"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="M92" s="48"/>
-      <c r="N92" s="48"/>
-      <c r="O92" s="49"/>
-      <c r="P92" s="41" t="s">
+      <c r="M92" s="34"/>
+      <c r="N92" s="34"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q92" s="43" t="s">
+      <c r="Q92" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="43"/>
-      <c r="B93" s="43"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="50"/>
-      <c r="E93" s="51"/>
-      <c r="F93" s="51"/>
-      <c r="G93" s="52"/>
-      <c r="H93" s="50"/>
-      <c r="I93" s="51"/>
-      <c r="J93" s="51"/>
-      <c r="K93" s="52"/>
-      <c r="L93" s="50"/>
-      <c r="M93" s="51"/>
-      <c r="N93" s="51"/>
-      <c r="O93" s="52"/>
-      <c r="P93" s="41"/>
-      <c r="Q93" s="43"/>
+      <c r="A93" s="30"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="38"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="37"/>
+      <c r="N93" s="37"/>
+      <c r="O93" s="38"/>
+      <c r="P93" s="39"/>
+      <c r="Q93" s="30"/>
     </row>
     <row r="94" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="44"/>
-      <c r="B94" s="44"/>
-      <c r="C94" s="45"/>
+      <c r="A94" s="31"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="32"/>
       <c r="D94" s="3" t="s">
         <v>17</v>
       </c>
@@ -18106,8 +18096,8 @@
       <c r="O94" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P94" s="42"/>
-      <c r="Q94" s="44"/>
+      <c r="P94" s="40"/>
+      <c r="Q94" s="31"/>
     </row>
     <row r="95" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
@@ -19233,42 +19223,42 @@
       <c r="B116" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C116" s="53" t="s">
+      <c r="C116" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D116" s="53"/>
-      <c r="E116" s="53"/>
-      <c r="F116" s="53"/>
-      <c r="G116" s="53"/>
-      <c r="H116" s="53"/>
-      <c r="I116" s="53"/>
-      <c r="J116" s="53"/>
-      <c r="K116" s="53"/>
-      <c r="L116" s="53"/>
-      <c r="M116" s="53"/>
-      <c r="N116" s="53"/>
-      <c r="O116" s="53"/>
-      <c r="P116" s="53"/>
+      <c r="D116" s="56"/>
+      <c r="E116" s="56"/>
+      <c r="F116" s="56"/>
+      <c r="G116" s="56"/>
+      <c r="H116" s="56"/>
+      <c r="I116" s="56"/>
+      <c r="J116" s="56"/>
+      <c r="K116" s="56"/>
+      <c r="L116" s="56"/>
+      <c r="M116" s="56"/>
+      <c r="N116" s="56"/>
+      <c r="O116" s="56"/>
+      <c r="P116" s="56"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C117" s="53"/>
-      <c r="D117" s="53"/>
-      <c r="E117" s="53"/>
-      <c r="F117" s="53"/>
-      <c r="G117" s="53"/>
-      <c r="H117" s="53"/>
-      <c r="I117" s="53"/>
-      <c r="J117" s="53"/>
-      <c r="K117" s="53"/>
-      <c r="L117" s="53"/>
-      <c r="M117" s="53"/>
-      <c r="N117" s="53"/>
-      <c r="O117" s="53"/>
-      <c r="P117" s="53"/>
+      <c r="C117" s="56"/>
+      <c r="D117" s="56"/>
+      <c r="E117" s="56"/>
+      <c r="F117" s="56"/>
+      <c r="G117" s="56"/>
+      <c r="H117" s="56"/>
+      <c r="I117" s="56"/>
+      <c r="J117" s="56"/>
+      <c r="K117" s="56"/>
+      <c r="L117" s="56"/>
+      <c r="M117" s="56"/>
+      <c r="N117" s="56"/>
+      <c r="O117" s="56"/>
+      <c r="P117" s="56"/>
       <c r="Q117" s="1"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
@@ -19276,20 +19266,20 @@
       <c r="B118" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C118" s="53"/>
-      <c r="D118" s="53"/>
-      <c r="E118" s="53"/>
-      <c r="F118" s="53"/>
-      <c r="G118" s="53"/>
-      <c r="H118" s="53"/>
-      <c r="I118" s="53"/>
-      <c r="J118" s="53"/>
-      <c r="K118" s="53"/>
-      <c r="L118" s="53"/>
-      <c r="M118" s="53"/>
-      <c r="N118" s="53"/>
-      <c r="O118" s="53"/>
-      <c r="P118" s="53"/>
+      <c r="C118" s="56"/>
+      <c r="D118" s="56"/>
+      <c r="E118" s="56"/>
+      <c r="F118" s="56"/>
+      <c r="G118" s="56"/>
+      <c r="H118" s="56"/>
+      <c r="I118" s="56"/>
+      <c r="J118" s="56"/>
+      <c r="K118" s="56"/>
+      <c r="L118" s="56"/>
+      <c r="M118" s="56"/>
+      <c r="N118" s="56"/>
+      <c r="O118" s="56"/>
+      <c r="P118" s="56"/>
       <c r="Q118" s="1"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
@@ -19432,78 +19422,78 @@
       <c r="Q126" s="1"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A127" s="25"/>
-      <c r="B127" s="25"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="25"/>
-      <c r="E127" s="25"/>
-      <c r="F127" s="25"/>
-      <c r="G127" s="25"/>
-      <c r="H127" s="25"/>
-      <c r="I127" s="25"/>
-      <c r="J127" s="25"/>
-      <c r="K127" s="25"/>
-      <c r="L127" s="25"/>
-      <c r="M127" s="25"/>
-      <c r="N127" s="25"/>
-      <c r="O127" s="25"/>
-      <c r="P127" s="25"/>
-      <c r="Q127" s="25"/>
+      <c r="A127" s="52"/>
+      <c r="B127" s="52"/>
+      <c r="C127" s="52"/>
+      <c r="D127" s="52"/>
+      <c r="E127" s="52"/>
+      <c r="F127" s="52"/>
+      <c r="G127" s="52"/>
+      <c r="H127" s="52"/>
+      <c r="I127" s="52"/>
+      <c r="J127" s="52"/>
+      <c r="K127" s="52"/>
+      <c r="L127" s="52"/>
+      <c r="M127" s="52"/>
+      <c r="N127" s="52"/>
+      <c r="O127" s="52"/>
+      <c r="P127" s="52"/>
+      <c r="Q127" s="52"/>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A128" s="26"/>
-      <c r="B128" s="26"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="26"/>
-      <c r="E128" s="26"/>
-      <c r="F128" s="26"/>
-      <c r="G128" s="26"/>
-      <c r="H128" s="26"/>
-      <c r="I128" s="26"/>
-      <c r="J128" s="26"/>
-      <c r="K128" s="26"/>
-      <c r="L128" s="26"/>
-      <c r="M128" s="26"/>
-      <c r="N128" s="26"/>
-      <c r="O128" s="26"/>
-      <c r="P128" s="26"/>
-      <c r="Q128" s="26"/>
+      <c r="A128" s="53"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="53"/>
+      <c r="D128" s="53"/>
+      <c r="E128" s="53"/>
+      <c r="F128" s="53"/>
+      <c r="G128" s="53"/>
+      <c r="H128" s="53"/>
+      <c r="I128" s="53"/>
+      <c r="J128" s="53"/>
+      <c r="K128" s="53"/>
+      <c r="L128" s="53"/>
+      <c r="M128" s="53"/>
+      <c r="N128" s="53"/>
+      <c r="O128" s="53"/>
+      <c r="P128" s="53"/>
+      <c r="Q128" s="53"/>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A129" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129" s="28"/>
-      <c r="C129" s="29" t="s">
+      <c r="A129" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="27"/>
+      <c r="C129" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D129" s="29"/>
-      <c r="E129" s="29"/>
-      <c r="F129" s="29"/>
-      <c r="G129" s="29"/>
-      <c r="H129" s="29"/>
-      <c r="I129" s="29"/>
-      <c r="J129" s="29"/>
-      <c r="K129" s="30"/>
-      <c r="L129" s="31"/>
-      <c r="M129" s="31"/>
-      <c r="N129" s="31"/>
-      <c r="O129" s="31"/>
-      <c r="P129" s="31"/>
-      <c r="Q129" s="32"/>
+      <c r="D129" s="44"/>
+      <c r="E129" s="44"/>
+      <c r="F129" s="44"/>
+      <c r="G129" s="44"/>
+      <c r="H129" s="44"/>
+      <c r="I129" s="44"/>
+      <c r="J129" s="44"/>
+      <c r="K129" s="45"/>
+      <c r="L129" s="28"/>
+      <c r="M129" s="28"/>
+      <c r="N129" s="28"/>
+      <c r="O129" s="28"/>
+      <c r="P129" s="28"/>
+      <c r="Q129" s="29"/>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A130" s="27" t="s">
+      <c r="A130" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B130" s="28"/>
+      <c r="B130" s="27"/>
       <c r="C130" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D130" s="33" t="s">
+      <c r="D130" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E130" s="34"/>
+      <c r="E130" s="55"/>
       <c r="F130" s="2" t="s">
         <v>1</v>
       </c>
@@ -19519,128 +19509,128 @@
       <c r="J130" s="2">
         <v>2022</v>
       </c>
-      <c r="K130" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="L130" s="31"/>
-      <c r="M130" s="31"/>
-      <c r="N130" s="31"/>
-      <c r="O130" s="31"/>
-      <c r="P130" s="31"/>
-      <c r="Q130" s="32"/>
+      <c r="K130" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L130" s="28"/>
+      <c r="M130" s="28"/>
+      <c r="N130" s="28"/>
+      <c r="O130" s="28"/>
+      <c r="P130" s="28"/>
+      <c r="Q130" s="29"/>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A131" s="27" t="s">
+      <c r="A131" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B131" s="28"/>
+      <c r="B131" s="27"/>
       <c r="C131" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E131" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F131" s="31"/>
-      <c r="G131" s="31"/>
-      <c r="H131" s="31"/>
-      <c r="I131" s="31"/>
-      <c r="J131" s="31"/>
-      <c r="K131" s="31"/>
-      <c r="L131" s="31"/>
-      <c r="M131" s="31"/>
-      <c r="N131" s="31"/>
-      <c r="O131" s="31"/>
-      <c r="P131" s="31"/>
-      <c r="Q131" s="32"/>
+      <c r="E131" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F131" s="28"/>
+      <c r="G131" s="28"/>
+      <c r="H131" s="28"/>
+      <c r="I131" s="28"/>
+      <c r="J131" s="28"/>
+      <c r="K131" s="28"/>
+      <c r="L131" s="28"/>
+      <c r="M131" s="28"/>
+      <c r="N131" s="28"/>
+      <c r="O131" s="28"/>
+      <c r="P131" s="28"/>
+      <c r="Q131" s="29"/>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A132" s="27" t="s">
+      <c r="A132" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B132" s="28"/>
+      <c r="B132" s="27"/>
       <c r="C132" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D132" s="33" t="s">
+      <c r="D132" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E132" s="34"/>
-      <c r="F132" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G132" s="31"/>
-      <c r="H132" s="31"/>
-      <c r="I132" s="31"/>
-      <c r="J132" s="31"/>
-      <c r="K132" s="31"/>
-      <c r="L132" s="31"/>
-      <c r="M132" s="31"/>
-      <c r="N132" s="31"/>
-      <c r="O132" s="31"/>
-      <c r="P132" s="31"/>
-      <c r="Q132" s="32"/>
+      <c r="E132" s="55"/>
+      <c r="F132" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G132" s="28"/>
+      <c r="H132" s="28"/>
+      <c r="I132" s="28"/>
+      <c r="J132" s="28"/>
+      <c r="K132" s="28"/>
+      <c r="L132" s="28"/>
+      <c r="M132" s="28"/>
+      <c r="N132" s="28"/>
+      <c r="O132" s="28"/>
+      <c r="P132" s="28"/>
+      <c r="Q132" s="29"/>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A133" s="43" t="s">
+      <c r="A133" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B133" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C133" s="43" t="s">
+      <c r="B133" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="47" t="s">
+      <c r="D133" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E133" s="48"/>
-      <c r="F133" s="48"/>
-      <c r="G133" s="49"/>
-      <c r="H133" s="47" t="s">
+      <c r="E133" s="34"/>
+      <c r="F133" s="34"/>
+      <c r="G133" s="35"/>
+      <c r="H133" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I133" s="48"/>
-      <c r="J133" s="48"/>
-      <c r="K133" s="49"/>
-      <c r="L133" s="47" t="s">
+      <c r="I133" s="34"/>
+      <c r="J133" s="34"/>
+      <c r="K133" s="35"/>
+      <c r="L133" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="M133" s="48"/>
-      <c r="N133" s="48"/>
-      <c r="O133" s="49"/>
-      <c r="P133" s="41" t="s">
+      <c r="M133" s="34"/>
+      <c r="N133" s="34"/>
+      <c r="O133" s="35"/>
+      <c r="P133" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q133" s="43" t="s">
+      <c r="Q133" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A134" s="43"/>
-      <c r="B134" s="43"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="50"/>
-      <c r="E134" s="51"/>
-      <c r="F134" s="51"/>
-      <c r="G134" s="52"/>
-      <c r="H134" s="50"/>
-      <c r="I134" s="51"/>
-      <c r="J134" s="51"/>
-      <c r="K134" s="52"/>
-      <c r="L134" s="50"/>
-      <c r="M134" s="51"/>
-      <c r="N134" s="51"/>
-      <c r="O134" s="52"/>
-      <c r="P134" s="41"/>
-      <c r="Q134" s="43"/>
+      <c r="A134" s="30"/>
+      <c r="B134" s="30"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="36"/>
+      <c r="E134" s="37"/>
+      <c r="F134" s="37"/>
+      <c r="G134" s="38"/>
+      <c r="H134" s="36"/>
+      <c r="I134" s="37"/>
+      <c r="J134" s="37"/>
+      <c r="K134" s="38"/>
+      <c r="L134" s="36"/>
+      <c r="M134" s="37"/>
+      <c r="N134" s="37"/>
+      <c r="O134" s="38"/>
+      <c r="P134" s="39"/>
+      <c r="Q134" s="30"/>
     </row>
     <row r="135" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="44"/>
-      <c r="B135" s="44"/>
-      <c r="C135" s="45"/>
+      <c r="A135" s="31"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="32"/>
       <c r="D135" s="3" t="s">
         <v>17</v>
       </c>
@@ -19677,8 +19667,8 @@
       <c r="O135" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P135" s="42"/>
-      <c r="Q135" s="44"/>
+      <c r="P135" s="40"/>
+      <c r="Q135" s="31"/>
     </row>
     <row r="136" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
@@ -20804,42 +20794,42 @@
       <c r="B157" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C157" s="53" t="s">
+      <c r="C157" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D157" s="53"/>
-      <c r="E157" s="53"/>
-      <c r="F157" s="53"/>
-      <c r="G157" s="53"/>
-      <c r="H157" s="53"/>
-      <c r="I157" s="53"/>
-      <c r="J157" s="53"/>
-      <c r="K157" s="53"/>
-      <c r="L157" s="53"/>
-      <c r="M157" s="53"/>
-      <c r="N157" s="53"/>
-      <c r="O157" s="53"/>
-      <c r="P157" s="53"/>
+      <c r="D157" s="56"/>
+      <c r="E157" s="56"/>
+      <c r="F157" s="56"/>
+      <c r="G157" s="56"/>
+      <c r="H157" s="56"/>
+      <c r="I157" s="56"/>
+      <c r="J157" s="56"/>
+      <c r="K157" s="56"/>
+      <c r="L157" s="56"/>
+      <c r="M157" s="56"/>
+      <c r="N157" s="56"/>
+      <c r="O157" s="56"/>
+      <c r="P157" s="56"/>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C158" s="53"/>
-      <c r="D158" s="53"/>
-      <c r="E158" s="53"/>
-      <c r="F158" s="53"/>
-      <c r="G158" s="53"/>
-      <c r="H158" s="53"/>
-      <c r="I158" s="53"/>
-      <c r="J158" s="53"/>
-      <c r="K158" s="53"/>
-      <c r="L158" s="53"/>
-      <c r="M158" s="53"/>
-      <c r="N158" s="53"/>
-      <c r="O158" s="53"/>
-      <c r="P158" s="53"/>
+      <c r="C158" s="56"/>
+      <c r="D158" s="56"/>
+      <c r="E158" s="56"/>
+      <c r="F158" s="56"/>
+      <c r="G158" s="56"/>
+      <c r="H158" s="56"/>
+      <c r="I158" s="56"/>
+      <c r="J158" s="56"/>
+      <c r="K158" s="56"/>
+      <c r="L158" s="56"/>
+      <c r="M158" s="56"/>
+      <c r="N158" s="56"/>
+      <c r="O158" s="56"/>
+      <c r="P158" s="56"/>
       <c r="Q158" s="1"/>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.25">
@@ -20847,20 +20837,20 @@
       <c r="B159" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C159" s="53"/>
-      <c r="D159" s="53"/>
-      <c r="E159" s="53"/>
-      <c r="F159" s="53"/>
-      <c r="G159" s="53"/>
-      <c r="H159" s="53"/>
-      <c r="I159" s="53"/>
-      <c r="J159" s="53"/>
-      <c r="K159" s="53"/>
-      <c r="L159" s="53"/>
-      <c r="M159" s="53"/>
-      <c r="N159" s="53"/>
-      <c r="O159" s="53"/>
-      <c r="P159" s="53"/>
+      <c r="C159" s="56"/>
+      <c r="D159" s="56"/>
+      <c r="E159" s="56"/>
+      <c r="F159" s="56"/>
+      <c r="G159" s="56"/>
+      <c r="H159" s="56"/>
+      <c r="I159" s="56"/>
+      <c r="J159" s="56"/>
+      <c r="K159" s="56"/>
+      <c r="L159" s="56"/>
+      <c r="M159" s="56"/>
+      <c r="N159" s="56"/>
+      <c r="O159" s="56"/>
+      <c r="P159" s="56"/>
       <c r="Q159" s="1"/>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.25">
@@ -20947,62 +20937,18 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="C157:P159"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="F132:Q132"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="C133:C135"/>
-    <mergeCell ref="D133:G134"/>
-    <mergeCell ref="H133:K134"/>
-    <mergeCell ref="L133:O134"/>
-    <mergeCell ref="P133:P135"/>
-    <mergeCell ref="Q133:Q135"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="K130:Q130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="E131:Q131"/>
-    <mergeCell ref="C116:P118"/>
-    <mergeCell ref="A127:Q128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="C129:K129"/>
-    <mergeCell ref="L129:Q129"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:Q91"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:G93"/>
-    <mergeCell ref="H92:K93"/>
-    <mergeCell ref="L92:O93"/>
-    <mergeCell ref="P92:P94"/>
-    <mergeCell ref="Q92:Q94"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="K89:Q89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="E90:Q90"/>
-    <mergeCell ref="A86:Q87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:K88"/>
-    <mergeCell ref="L88:Q88"/>
-    <mergeCell ref="P51:P53"/>
-    <mergeCell ref="Q51:Q53"/>
-    <mergeCell ref="C75:P77"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:G52"/>
-    <mergeCell ref="H51:K52"/>
-    <mergeCell ref="L51:O52"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="E49:Q49"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:Q9"/>
+    <mergeCell ref="A4:Q5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:Q8"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="F50:Q50"/>
@@ -21019,18 +20965,62 @@
     <mergeCell ref="D10:G11"/>
     <mergeCell ref="H10:K11"/>
     <mergeCell ref="L10:O11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:Q9"/>
-    <mergeCell ref="A4:Q5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:Q8"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="E49:Q49"/>
+    <mergeCell ref="A86:Q87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:K88"/>
+    <mergeCell ref="L88:Q88"/>
+    <mergeCell ref="P51:P53"/>
+    <mergeCell ref="Q51:Q53"/>
+    <mergeCell ref="C75:P77"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:G52"/>
+    <mergeCell ref="H51:K52"/>
+    <mergeCell ref="L51:O52"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="E90:Q90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:Q91"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D92:G93"/>
+    <mergeCell ref="H92:K93"/>
+    <mergeCell ref="L92:O93"/>
+    <mergeCell ref="P92:P94"/>
+    <mergeCell ref="Q92:Q94"/>
+    <mergeCell ref="C116:P118"/>
+    <mergeCell ref="A127:Q128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:K129"/>
+    <mergeCell ref="L129:Q129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="E131:Q131"/>
+    <mergeCell ref="C157:P159"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="F132:Q132"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="C133:C135"/>
+    <mergeCell ref="D133:G134"/>
+    <mergeCell ref="H133:K134"/>
+    <mergeCell ref="L133:O134"/>
+    <mergeCell ref="P133:P135"/>
+    <mergeCell ref="Q133:Q135"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21112,78 +21102,78 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29" t="s">
+      <c r="A6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="32"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
@@ -21199,128 +21189,128 @@
       <c r="J7" s="2">
         <v>2022</v>
       </c>
-      <c r="K7" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="32"/>
+      <c r="K7" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="32"/>
+      <c r="E8" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="29"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="32"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="29"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="43" t="s">
+      <c r="B10" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="47" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="47" t="s">
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="41" t="s">
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="43" t="s">
+      <c r="Q10" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="43"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="30"/>
     </row>
     <row r="12" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
@@ -21357,8 +21347,8 @@
       <c r="O12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="44"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="31"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -22484,42 +22474,42 @@
       <c r="B34" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -22527,20 +22517,20 @@
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -22683,78 +22673,78 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="29" t="s">
+      <c r="A46" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="27"/>
+      <c r="C46" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="32"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="29"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="28"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="34"/>
+      <c r="E47" s="55"/>
       <c r="F47" s="2" t="s">
         <v>1</v>
       </c>
@@ -22770,128 +22760,128 @@
       <c r="J47" s="2">
         <v>2022</v>
       </c>
-      <c r="K47" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="32"/>
+      <c r="K47" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="29"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="28"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="32"/>
+      <c r="E48" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="29"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="28"/>
+      <c r="B49" s="27"/>
       <c r="C49" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="34"/>
-      <c r="F49" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="32"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="29"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="43" t="s">
+      <c r="B50" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="47" t="s">
+      <c r="D50" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="47" t="s">
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="47" t="s">
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="M50" s="48"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="49"/>
-      <c r="P50" s="41" t="s">
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q50" s="43" t="s">
+      <c r="Q50" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="51"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="43"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="30"/>
     </row>
     <row r="52" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="45"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="3" t="s">
         <v>17</v>
       </c>
@@ -22928,8 +22918,8 @@
       <c r="O52" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="44"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="31"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
@@ -24055,42 +24045,42 @@
       <c r="B74" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="53" t="s">
+      <c r="C74" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="53"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="53"/>
-      <c r="K74" s="53"/>
-      <c r="L74" s="53"/>
-      <c r="M74" s="53"/>
-      <c r="N74" s="53"/>
-      <c r="O74" s="53"/>
-      <c r="P74" s="53"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
+      <c r="L74" s="56"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="56"/>
+      <c r="O74" s="56"/>
+      <c r="P74" s="56"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="53"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="53"/>
-      <c r="K75" s="53"/>
-      <c r="L75" s="53"/>
-      <c r="M75" s="53"/>
-      <c r="N75" s="53"/>
-      <c r="O75" s="53"/>
-      <c r="P75" s="53"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="56"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="56"/>
+      <c r="O75" s="56"/>
+      <c r="P75" s="56"/>
       <c r="Q75" s="1"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -24098,20 +24088,20 @@
       <c r="B76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="53"/>
-      <c r="M76" s="53"/>
-      <c r="N76" s="53"/>
-      <c r="O76" s="53"/>
-      <c r="P76" s="53"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="56"/>
+      <c r="O76" s="56"/>
+      <c r="P76" s="56"/>
       <c r="Q76" s="1"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -24254,78 +24244,78 @@
       <c r="Q83" s="1"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="25"/>
-      <c r="O84" s="25"/>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="25"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="52"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="52"/>
+      <c r="I84" s="52"/>
+      <c r="J84" s="52"/>
+      <c r="K84" s="52"/>
+      <c r="L84" s="52"/>
+      <c r="M84" s="52"/>
+      <c r="N84" s="52"/>
+      <c r="O84" s="52"/>
+      <c r="P84" s="52"/>
+      <c r="Q84" s="52"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="26"/>
-      <c r="L85" s="26"/>
-      <c r="M85" s="26"/>
-      <c r="N85" s="26"/>
-      <c r="O85" s="26"/>
-      <c r="P85" s="26"/>
-      <c r="Q85" s="26"/>
+      <c r="A85" s="53"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="53"/>
+      <c r="I85" s="53"/>
+      <c r="J85" s="53"/>
+      <c r="K85" s="53"/>
+      <c r="L85" s="53"/>
+      <c r="M85" s="53"/>
+      <c r="N85" s="53"/>
+      <c r="O85" s="53"/>
+      <c r="P85" s="53"/>
+      <c r="Q85" s="53"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="28"/>
-      <c r="C86" s="29" t="s">
+      <c r="A86" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="27"/>
+      <c r="C86" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="30"/>
-      <c r="L86" s="31"/>
-      <c r="M86" s="31"/>
-      <c r="N86" s="31"/>
-      <c r="O86" s="31"/>
-      <c r="P86" s="31"/>
-      <c r="Q86" s="32"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="45"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="28"/>
+      <c r="O86" s="28"/>
+      <c r="P86" s="28"/>
+      <c r="Q86" s="29"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="27" t="s">
+      <c r="A87" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="28"/>
+      <c r="B87" s="27"/>
       <c r="C87" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D87" s="33" t="s">
+      <c r="D87" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E87" s="34"/>
+      <c r="E87" s="55"/>
       <c r="F87" s="2" t="s">
         <v>1</v>
       </c>
@@ -24341,128 +24331,128 @@
       <c r="J87" s="2">
         <v>2022</v>
       </c>
-      <c r="K87" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="L87" s="31"/>
-      <c r="M87" s="31"/>
-      <c r="N87" s="31"/>
-      <c r="O87" s="31"/>
-      <c r="P87" s="31"/>
-      <c r="Q87" s="32"/>
+      <c r="K87" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L87" s="28"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="28"/>
+      <c r="O87" s="28"/>
+      <c r="P87" s="28"/>
+      <c r="Q87" s="29"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="27" t="s">
+      <c r="A88" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B88" s="28"/>
+      <c r="B88" s="27"/>
       <c r="C88" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="31"/>
-      <c r="K88" s="31"/>
-      <c r="L88" s="31"/>
-      <c r="M88" s="31"/>
-      <c r="N88" s="31"/>
-      <c r="O88" s="31"/>
-      <c r="P88" s="31"/>
-      <c r="Q88" s="32"/>
+      <c r="E88" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="28"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="28"/>
+      <c r="P88" s="28"/>
+      <c r="Q88" s="29"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="27" t="s">
+      <c r="A89" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="28"/>
+      <c r="B89" s="27"/>
       <c r="C89" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D89" s="33" t="s">
+      <c r="D89" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E89" s="34"/>
-      <c r="F89" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G89" s="31"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="31"/>
-      <c r="J89" s="31"/>
-      <c r="K89" s="31"/>
-      <c r="L89" s="31"/>
-      <c r="M89" s="31"/>
-      <c r="N89" s="31"/>
-      <c r="O89" s="31"/>
-      <c r="P89" s="31"/>
-      <c r="Q89" s="32"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="28"/>
+      <c r="M89" s="28"/>
+      <c r="N89" s="28"/>
+      <c r="O89" s="28"/>
+      <c r="P89" s="28"/>
+      <c r="Q89" s="29"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="43" t="s">
+      <c r="A90" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" s="43" t="s">
+      <c r="B90" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="47" t="s">
+      <c r="D90" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="48"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="49"/>
-      <c r="H90" s="47" t="s">
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I90" s="48"/>
-      <c r="J90" s="48"/>
-      <c r="K90" s="49"/>
-      <c r="L90" s="47" t="s">
+      <c r="I90" s="34"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="M90" s="48"/>
-      <c r="N90" s="48"/>
-      <c r="O90" s="49"/>
-      <c r="P90" s="41" t="s">
+      <c r="M90" s="34"/>
+      <c r="N90" s="34"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q90" s="43" t="s">
+      <c r="Q90" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="43"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="51"/>
-      <c r="G91" s="52"/>
-      <c r="H91" s="50"/>
-      <c r="I91" s="51"/>
-      <c r="J91" s="51"/>
-      <c r="K91" s="52"/>
-      <c r="L91" s="50"/>
-      <c r="M91" s="51"/>
-      <c r="N91" s="51"/>
-      <c r="O91" s="52"/>
-      <c r="P91" s="41"/>
-      <c r="Q91" s="43"/>
+      <c r="A91" s="30"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="38"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="37"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="39"/>
+      <c r="Q91" s="30"/>
     </row>
     <row r="92" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="44"/>
-      <c r="B92" s="44"/>
-      <c r="C92" s="45"/>
+      <c r="A92" s="31"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="32"/>
       <c r="D92" s="3" t="s">
         <v>17</v>
       </c>
@@ -24499,8 +24489,8 @@
       <c r="O92" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P92" s="42"/>
-      <c r="Q92" s="44"/>
+      <c r="P92" s="40"/>
+      <c r="Q92" s="31"/>
     </row>
     <row r="93" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
@@ -25626,42 +25616,42 @@
       <c r="B114" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C114" s="53" t="s">
+      <c r="C114" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D114" s="53"/>
-      <c r="E114" s="53"/>
-      <c r="F114" s="53"/>
-      <c r="G114" s="53"/>
-      <c r="H114" s="53"/>
-      <c r="I114" s="53"/>
-      <c r="J114" s="53"/>
-      <c r="K114" s="53"/>
-      <c r="L114" s="53"/>
-      <c r="M114" s="53"/>
-      <c r="N114" s="53"/>
-      <c r="O114" s="53"/>
-      <c r="P114" s="53"/>
+      <c r="D114" s="56"/>
+      <c r="E114" s="56"/>
+      <c r="F114" s="56"/>
+      <c r="G114" s="56"/>
+      <c r="H114" s="56"/>
+      <c r="I114" s="56"/>
+      <c r="J114" s="56"/>
+      <c r="K114" s="56"/>
+      <c r="L114" s="56"/>
+      <c r="M114" s="56"/>
+      <c r="N114" s="56"/>
+      <c r="O114" s="56"/>
+      <c r="P114" s="56"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C115" s="53"/>
-      <c r="D115" s="53"/>
-      <c r="E115" s="53"/>
-      <c r="F115" s="53"/>
-      <c r="G115" s="53"/>
-      <c r="H115" s="53"/>
-      <c r="I115" s="53"/>
-      <c r="J115" s="53"/>
-      <c r="K115" s="53"/>
-      <c r="L115" s="53"/>
-      <c r="M115" s="53"/>
-      <c r="N115" s="53"/>
-      <c r="O115" s="53"/>
-      <c r="P115" s="53"/>
+      <c r="C115" s="56"/>
+      <c r="D115" s="56"/>
+      <c r="E115" s="56"/>
+      <c r="F115" s="56"/>
+      <c r="G115" s="56"/>
+      <c r="H115" s="56"/>
+      <c r="I115" s="56"/>
+      <c r="J115" s="56"/>
+      <c r="K115" s="56"/>
+      <c r="L115" s="56"/>
+      <c r="M115" s="56"/>
+      <c r="N115" s="56"/>
+      <c r="O115" s="56"/>
+      <c r="P115" s="56"/>
       <c r="Q115" s="1"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
@@ -25669,20 +25659,20 @@
       <c r="B116" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C116" s="53"/>
-      <c r="D116" s="53"/>
-      <c r="E116" s="53"/>
-      <c r="F116" s="53"/>
-      <c r="G116" s="53"/>
-      <c r="H116" s="53"/>
-      <c r="I116" s="53"/>
-      <c r="J116" s="53"/>
-      <c r="K116" s="53"/>
-      <c r="L116" s="53"/>
-      <c r="M116" s="53"/>
-      <c r="N116" s="53"/>
-      <c r="O116" s="53"/>
-      <c r="P116" s="53"/>
+      <c r="C116" s="56"/>
+      <c r="D116" s="56"/>
+      <c r="E116" s="56"/>
+      <c r="F116" s="56"/>
+      <c r="G116" s="56"/>
+      <c r="H116" s="56"/>
+      <c r="I116" s="56"/>
+      <c r="J116" s="56"/>
+      <c r="K116" s="56"/>
+      <c r="L116" s="56"/>
+      <c r="M116" s="56"/>
+      <c r="N116" s="56"/>
+      <c r="O116" s="56"/>
+      <c r="P116" s="56"/>
       <c r="Q116" s="1"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
@@ -25769,56 +25759,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C114:P116"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="E48:Q48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:Q49"/>
-    <mergeCell ref="L10:O11"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="C34:P36"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:G11"/>
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:Q8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:Q9"/>
-    <mergeCell ref="A4:Q5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A44:Q45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="L46:Q46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="K47:Q47"/>
-    <mergeCell ref="L50:O51"/>
-    <mergeCell ref="P50:P52"/>
-    <mergeCell ref="Q50:Q52"/>
-    <mergeCell ref="C74:P76"/>
-    <mergeCell ref="A84:Q85"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:G51"/>
-    <mergeCell ref="H50:K51"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:K86"/>
-    <mergeCell ref="L86:Q86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="K87:Q87"/>
     <mergeCell ref="E88:Q88"/>
     <mergeCell ref="F89:Q89"/>
     <mergeCell ref="A90:A92"/>
@@ -25832,6 +25772,56 @@
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:K86"/>
+    <mergeCell ref="L86:Q86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A4:Q5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:Q8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:Q9"/>
+    <mergeCell ref="L10:O11"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="C34:P36"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="A44:Q45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="L46:Q46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="C114:P116"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="E48:Q48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:Q49"/>
+    <mergeCell ref="L50:O51"/>
+    <mergeCell ref="P50:P52"/>
+    <mergeCell ref="Q50:Q52"/>
+    <mergeCell ref="C74:P76"/>
+    <mergeCell ref="A84:Q85"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:G51"/>
+    <mergeCell ref="H50:K51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
